--- a/examples/vpcwebapp/xlsx/lb.xlsx
+++ b/examples/vpcwebapp/xlsx/lb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcmodules/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7772E22-2A34-5842-81E5-E4545EFC9B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFDBA9D-6622-7F43-8108-FF2545C06FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="5960" windowWidth="25600" windowHeight="14780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loadbalancers" sheetId="50" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>*name</t>
   </si>
@@ -185,9 +185,6 @@
     <t>"${var.vpc-name}-webapptier01-lb"</t>
   </si>
   <si>
-    <t>[ibm_is_subnet.webapptier-subnet-zone1.id, ibm_is_subnet.webapptier-subnet-zone2.id]</t>
-  </si>
-  <si>
     <t>"public"</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>"/"</t>
   </si>
   <si>
-    <t>ibm_resource_group.group.id</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -231,6 +225,18 @@
   </si>
   <si>
     <t>Define webapptier LB pool member in zone2</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>var.group-id</t>
+  </si>
+  <si>
+    <t>[var.webapptier-subnet-zone1-id, var.webapptier-subnet-zone2-id]</t>
   </si>
 </sst>
 </file>
@@ -327,7 +333,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="62">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -393,6 +402,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -446,6 +458,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -534,12 +549,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -598,6 +619,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -620,128 +644,134 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2ECE5DB1-D260-6E49-B492-4FB9F047A792}" name="Table3" displayName="Table3" ref="A1:J4" totalsRowShown="0" headerRowDxfId="55">
-  <autoFilter ref="A1:J4" xr:uid="{BF7B2943-D8B2-F141-A648-1F77292E609F}"/>
-  <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{EF22B46C-EEC8-954B-9006-F5C934140BA4}" name="*file" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{14BCF91D-C69D-4A48-BAE6-6FE0CE708F39}" name="*resource" dataDxfId="53"/>
-    <tableColumn id="1" xr3:uid="{7E74D83A-54A4-D149-81D3-7E89BF180D8D}" name="*name" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{C8993A1E-13ED-9646-B484-5C8D98EE5999}" name="*subnets" dataDxfId="51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2ECE5DB1-D260-6E49-B492-4FB9F047A792}" name="Table3" displayName="Table3" ref="A1:K4" totalsRowShown="0" headerRowDxfId="61">
+  <autoFilter ref="A1:K4" xr:uid="{BF7B2943-D8B2-F141-A648-1F77292E609F}"/>
+  <tableColumns count="11">
+    <tableColumn id="9" xr3:uid="{EF22B46C-EEC8-954B-9006-F5C934140BA4}" name="*file" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{14BCF91D-C69D-4A48-BAE6-6FE0CE708F39}" name="*resource" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{7E74D83A-54A4-D149-81D3-7E89BF180D8D}" name="*name" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{C8993A1E-13ED-9646-B484-5C8D98EE5999}" name="*subnets" dataDxfId="57"/>
     <tableColumn id="3" xr3:uid="{E05E3D1A-B4E0-144E-B4A0-2A74FB710BE1}" name="type"/>
     <tableColumn id="4" xr3:uid="{F53EAA06-1D92-0941-BD62-CFA25A63B0D9}" name="resource_group"/>
     <tableColumn id="7" xr3:uid="{2524A41E-F007-AE48-9710-277646E4A10F}" name="tags"/>
     <tableColumn id="5" xr3:uid="{A420FD52-21F4-4942-82B5-3DC0138BED2A}" name="timeout.create"/>
     <tableColumn id="6" xr3:uid="{5D32FBCD-73F2-AF48-BA9D-8F34A6D1A6E7}" name="timeout.delete"/>
-    <tableColumn id="10" xr3:uid="{A343E872-CC4F-BD49-8BE1-8892E57C51A0}" name="comments" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{D7A33129-C6DA-C84B-9D71-C99AEDEABFEE}" name="module" dataDxfId="56"/>
+    <tableColumn id="10" xr3:uid="{A343E872-CC4F-BD49-8BE1-8892E57C51A0}" name="comments" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{94CB4938-803E-6A45-818C-239D4C2D3032}" name="Table14" displayName="Table14" ref="A1:L4" totalsRowShown="0" headerRowDxfId="49">
-  <autoFilter ref="A1:L4" xr:uid="{E37DA650-CD8A-9248-A324-C4E06B2EFAF3}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{94CB4938-803E-6A45-818C-239D4C2D3032}" name="Table14" displayName="Table14" ref="A1:M4" totalsRowShown="0" headerRowDxfId="54">
+  <autoFilter ref="A1:M4" xr:uid="{E37DA650-CD8A-9248-A324-C4E06B2EFAF3}"/>
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{B213F9EA-EE5C-F141-83B8-5F805CCFF0B8}" name="*file"/>
     <tableColumn id="11" xr3:uid="{BD2203B1-67E0-C748-8240-2DAB0412E863}" name="*resource"/>
-    <tableColumn id="2" xr3:uid="{58502468-21D1-1040-A10E-00FB04A9B10A}" name="*lb" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{36A4DC5F-3D00-1742-BF10-5AE11EE1736D}" name="*port" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{9FB55588-84BD-1745-A573-1D9D234CE5CF}" name="*protocol" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{243F434B-C4FC-9341-961C-5736FCAAFCB2}" name="default_pool" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{58502468-21D1-1040-A10E-00FB04A9B10A}" name="*lb" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{36A4DC5F-3D00-1742-BF10-5AE11EE1736D}" name="*port" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{9FB55588-84BD-1745-A573-1D9D234CE5CF}" name="*protocol" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{243F434B-C4FC-9341-961C-5736FCAAFCB2}" name="default_pool" dataDxfId="50"/>
     <tableColumn id="6" xr3:uid="{E9C6B5E4-8F28-894E-AAF5-FD0372359A08}" name="certificate_instance"/>
     <tableColumn id="7" xr3:uid="{39FB495A-D741-DF4D-9CBB-33126FDB2888}" name="connection_limit"/>
     <tableColumn id="8" xr3:uid="{B195A387-7290-6F4D-992D-FC6A35C6C037}" name="timeout.create"/>
     <tableColumn id="9" xr3:uid="{D57D52D5-F852-574F-AC8C-D4F002C543A3}" name="timeout.update"/>
     <tableColumn id="10" xr3:uid="{85A0B342-620E-6043-85AE-FEDAB97E276C}" name="timeout.delete"/>
-    <tableColumn id="12" xr3:uid="{CB74A269-422D-5A48-9E3A-49B7561F2312}" name="comments" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{B37D14EC-BA19-CF48-A82C-CA21046C0FCD}" name="module" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{CB74A269-422D-5A48-9E3A-49B7561F2312}" name="comments" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{85162D83-2223-2743-94A8-CBB5DCABF5E2}" name="Table5" displayName="Table5" ref="A1:Q4" totalsRowShown="0" headerRowDxfId="43">
-  <autoFilter ref="A1:Q4" xr:uid="{BABC147B-328A-9E42-A692-B07DDF9AA10A}"/>
-  <tableColumns count="17">
-    <tableColumn id="16" xr3:uid="{878D88ED-76D1-9E45-AFBB-45E26283A42D}" name="*file" dataDxfId="42"/>
-    <tableColumn id="17" xr3:uid="{76B528BC-6979-CD40-AA48-F7EF2765CC75}" name="*resource" dataDxfId="41"/>
-    <tableColumn id="1" xr3:uid="{1A08DB6B-DC44-4B4A-ACBB-35F1471E6D94}" name="*name" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{20D213A0-12B0-A448-93A2-6A4F802B619E}" name="*lb" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{C8D92085-C2A2-E94B-9427-75ADBDD22F85}" name="*algorithm" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{B3053301-5B4F-4F45-9DF1-DA16E8095157}" name="*protocol" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{7C332576-C537-4248-9FF0-2F9304672F27}" name="*health_delay" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{510D5DA4-96D6-9949-8E0A-ACCD7802CF77}" name="*health_retries" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{FADE0027-F404-2A4B-B748-0B5DED401559}" name="*health_timeout" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{48E221A6-8A70-8F49-9024-3BB8C6AB4DA4}" name="*health_type" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{DFCC5FFE-E582-F04E-A8A9-916B566859A5}" name="health_monitor_url" dataDxfId="32" dataCellStyle="Hyperlink"/>
-    <tableColumn id="15" xr3:uid="{FDF5BBAA-A030-0249-B742-785E3947CFDE}" name="health_monitor_port" dataDxfId="31" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" xr3:uid="{4A2772BB-820B-5A45-8BFB-F7F0C1B6AB42}" name="session_persistence_type" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{A27FBA85-3106-504B-9F02-448FD69509DA}" name="timeout.create" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{D1C30DEA-49E6-3D49-9C7A-D48F6B55A9A5}" name="timeout.update" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{85162D83-2223-2743-94A8-CBB5DCABF5E2}" name="Table5" displayName="Table5" ref="A1:R4" totalsRowShown="0" headerRowDxfId="47">
+  <autoFilter ref="A1:R4" xr:uid="{BABC147B-328A-9E42-A692-B07DDF9AA10A}"/>
+  <tableColumns count="18">
+    <tableColumn id="16" xr3:uid="{878D88ED-76D1-9E45-AFBB-45E26283A42D}" name="*file" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{76B528BC-6979-CD40-AA48-F7EF2765CC75}" name="*resource" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{1A08DB6B-DC44-4B4A-ACBB-35F1471E6D94}" name="*name" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{20D213A0-12B0-A448-93A2-6A4F802B619E}" name="*lb" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{C8D92085-C2A2-E94B-9427-75ADBDD22F85}" name="*algorithm" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{B3053301-5B4F-4F45-9DF1-DA16E8095157}" name="*protocol" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{7C332576-C537-4248-9FF0-2F9304672F27}" name="*health_delay" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{510D5DA4-96D6-9949-8E0A-ACCD7802CF77}" name="*health_retries" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{FADE0027-F404-2A4B-B748-0B5DED401559}" name="*health_timeout" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{48E221A6-8A70-8F49-9024-3BB8C6AB4DA4}" name="*health_type" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{DFCC5FFE-E582-F04E-A8A9-916B566859A5}" name="health_monitor_url" dataDxfId="36" dataCellStyle="Hyperlink"/>
+    <tableColumn id="15" xr3:uid="{FDF5BBAA-A030-0249-B742-785E3947CFDE}" name="health_monitor_port" dataDxfId="35" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{4A2772BB-820B-5A45-8BFB-F7F0C1B6AB42}" name="session_persistence_type" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{A27FBA85-3106-504B-9F02-448FD69509DA}" name="timeout.create" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{D1C30DEA-49E6-3D49-9C7A-D48F6B55A9A5}" name="timeout.update" dataDxfId="32"/>
     <tableColumn id="14" xr3:uid="{6B54822D-58A6-6944-8211-A034328AAF7F}" name="timeout.delete"/>
-    <tableColumn id="11" xr3:uid="{CBBC5E94-7D42-3446-9BB9-1A7080F20D12}" name="comments" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{232909D6-7106-2447-9A66-7755F68AAD1B}" name="module" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{CBBC5E94-7D42-3446-9BB9-1A7080F20D12}" name="comments" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{398DB5A6-1B4D-6846-8DA7-E5AD59B6CE38}" name="Table13" displayName="Table13" ref="A1:L5" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="A1:L5" xr:uid="{84D85FF3-D4A2-A145-9664-43C3D0B8D1F9}"/>
-  <tableColumns count="12">
-    <tableColumn id="11" xr3:uid="{28A3F32E-57F6-8842-B2B2-A04B774CDA50}" name="*file" dataDxfId="25"/>
-    <tableColumn id="1" xr3:uid="{057B1271-2391-7841-A672-9AD2C1910205}" name="*resource" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{F2654A05-284B-0140-951D-DB928685A88A}" name="*pool" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{6B716C5D-FF66-C746-8CFC-062268AAF158}" name="*lb" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{FD67A3F5-D75B-CB4B-A024-92F7CD45A782}" name="*port" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{DD77321C-9398-EE40-BFFA-ECD6F45DA631}" name="*target_address" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{6D9BEBF8-3CC8-4A46-B1C0-8CAEB4F85B2B}" name="weight" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{F8E3EE05-E616-E84F-99DB-97543EF6C5C8}" name="timeout.create" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{2CB92F37-5516-0349-A041-0758DAC69BB1}" name="timeout.update" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{C8275C9E-6CB9-D448-B533-095FDC0C8E0D}" name="timeout.delete" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{398DB5A6-1B4D-6846-8DA7-E5AD59B6CE38}" name="Table13" displayName="Table13" ref="A1:M5" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="A1:M5" xr:uid="{84D85FF3-D4A2-A145-9664-43C3D0B8D1F9}"/>
+  <tableColumns count="13">
+    <tableColumn id="11" xr3:uid="{28A3F32E-57F6-8842-B2B2-A04B774CDA50}" name="*file" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{057B1271-2391-7841-A672-9AD2C1910205}" name="*resource" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{F2654A05-284B-0140-951D-DB928685A88A}" name="*pool" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{6B716C5D-FF66-C746-8CFC-062268AAF158}" name="*lb" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{FD67A3F5-D75B-CB4B-A024-92F7CD45A782}" name="*port" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{DD77321C-9398-EE40-BFFA-ECD6F45DA631}" name="*target_address" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{6D9BEBF8-3CC8-4A46-B1C0-8CAEB4F85B2B}" name="weight" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{F8E3EE05-E616-E84F-99DB-97543EF6C5C8}" name="timeout.create" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{2CB92F37-5516-0349-A041-0758DAC69BB1}" name="timeout.update" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{C8275C9E-6CB9-D448-B533-095FDC0C8E0D}" name="timeout.delete" dataDxfId="19"/>
     <tableColumn id="9" xr3:uid="{C52E3E2D-54DD-9446-B067-67A8B4C63FC4}" name="count"/>
-    <tableColumn id="12" xr3:uid="{E517FD55-4CF5-A04C-8034-60F23FEBF025}" name="comments" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{B0A58451-1D94-504C-A4F0-866D84F781BD}" name="module" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{E517FD55-4CF5-A04C-8034-60F23FEBF025}" name="comments" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E60FD6E6-8DD8-8245-8578-34024AB794A8}" name="Table142" displayName="Table142" ref="A1:K5" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:K5" xr:uid="{E37DA650-CD8A-9248-A324-C4E06B2EFAF3}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E60FD6E6-8DD8-8245-8578-34024AB794A8}" name="Table142" displayName="Table142" ref="A1:L5" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:L5" xr:uid="{E37DA650-CD8A-9248-A324-C4E06B2EFAF3}"/>
+  <tableColumns count="12">
     <tableColumn id="9" xr3:uid="{E289064D-9E30-6C4C-8CE3-2300AC9C55C4}" name="*file"/>
     <tableColumn id="8" xr3:uid="{8F49C81B-5D52-C346-A10B-A5E168959794}" name="*resource"/>
     <tableColumn id="1" xr3:uid="{2FF8BFB2-91EE-A446-86F9-74CD2B7E4EAB}" name="*name"/>
-    <tableColumn id="2" xr3:uid="{2D2B65B1-D705-9545-9296-FDE0CA8FE849}" name="*lb" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{953F377D-3690-9F49-A2D7-13E4CAED4CFD}" name="*listener" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{98E5F21F-122F-974A-BFBE-71CD3158F486}" name="*action" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{59A20E18-E999-CA42-A9C6-78B5F8A5066C}" name="*priority" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2D2B65B1-D705-9545-9296-FDE0CA8FE849}" name="*lb" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{953F377D-3690-9F49-A2D7-13E4CAED4CFD}" name="*listener" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{98E5F21F-122F-974A-BFBE-71CD3158F486}" name="*action" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{59A20E18-E999-CA42-A9C6-78B5F8A5066C}" name="*priority" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{7FE7DF2C-C44E-D442-9BBB-5AD84DF41DB8}" name="target_id"/>
     <tableColumn id="7" xr3:uid="{91140738-BFFB-CB49-8086-4F979E2D8C20}" name="target_http_status_code"/>
     <tableColumn id="10" xr3:uid="{EE53A3E3-AC51-2E45-94FD-5B629F7F4A61}" name="target_url"/>
-    <tableColumn id="11" xr3:uid="{4827FB5C-6D08-9249-9ACC-68C56C9897B9}" name="comments" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{9387596E-F99C-824D-9D56-9DEC3D103E42}" name="module" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{4827FB5C-6D08-9249-9ACC-68C56C9897B9}" name="comments" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB510EA5-FA28-F942-B096-4AD8DC157ED6}" name="Table1423" displayName="Table1423" ref="A1:M5" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:M5" xr:uid="{E37DA650-CD8A-9248-A324-C4E06B2EFAF3}"/>
-  <tableColumns count="13">
-    <tableColumn id="5" xr3:uid="{213A2C7B-26C4-134C-9946-55629CD5D7D8}" name="*file" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB510EA5-FA28-F942-B096-4AD8DC157ED6}" name="Table1423" displayName="Table1423" ref="A1:N5" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:N5" xr:uid="{E37DA650-CD8A-9248-A324-C4E06B2EFAF3}"/>
+  <tableColumns count="14">
+    <tableColumn id="5" xr3:uid="{213A2C7B-26C4-134C-9946-55629CD5D7D8}" name="*file" dataDxfId="8"/>
     <tableColumn id="1" xr3:uid="{EA0ED60E-D0DE-A34E-B60D-CD9A9972FEC9}" name="*resource"/>
     <tableColumn id="13" xr3:uid="{C22299AC-5863-9240-B1AA-3216DA25B339}" name="*lb"/>
     <tableColumn id="14" xr3:uid="{FA1F3712-5C50-2641-86F6-54A372B45FA7}" name="*listener"/>
     <tableColumn id="12" xr3:uid="{9746E68F-0349-A943-8FE6-2148B555D441}" name="*policy"/>
-    <tableColumn id="2" xr3:uid="{45833F8C-D38E-ED41-BC5F-DAE08C0A5977}" name="*condition" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{88A1F463-97BB-864F-BF22-27C4F4FB0251}" name="*type" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{40E5D8D5-E47A-EA4A-A9C4-DBCBB379F2A6}" name="*value" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{B42889C8-ED1D-4545-A953-28757B789A40}" name="*field" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{F5D58FE6-4D35-5647-8437-280C3798174F}" name="timeout.create" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{030D816A-4760-CD44-BD28-34039F851579}" name="timeout.update" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{45833F8C-D38E-ED41-BC5F-DAE08C0A5977}" name="*condition" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{88A1F463-97BB-864F-BF22-27C4F4FB0251}" name="*type" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{40E5D8D5-E47A-EA4A-A9C4-DBCBB379F2A6}" name="*value" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{B42889C8-ED1D-4545-A953-28757B789A40}" name="*field" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{F5D58FE6-4D35-5647-8437-280C3798174F}" name="timeout.create" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{030D816A-4760-CD44-BD28-34039F851579}" name="timeout.update" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{663FF23A-35A0-084D-B859-8059110D2936}" name="timeout.delete"/>
+    <tableColumn id="7" xr3:uid="{A992B069-0A6D-BC4C-A5C0-457D2191537E}" name="module" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{BECE3FE1-0370-0241-B911-3C47B6D04E66}" name="comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1011,23 +1041,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B909B7-5B7F-FE4A-8CD8-0D8F5B038E31}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -1050,18 +1083,21 @@
         <v>19</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -1070,34 +1106,39 @@
         <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1109,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711B9366-0593-C248-9411-B78B3C2D6CE0}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1126,10 +1167,11 @@
     <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -1155,21 +1197,24 @@
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>52</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
@@ -1181,31 +1226,36 @@
         <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1217,9 +1267,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA16B708-803A-4C41-87F9-C6AEEBD9524B}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1239,10 +1289,11 @@
     <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -1283,27 +1334,30 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>46</v>
@@ -1312,7 +1366,7 @@
         <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
@@ -1324,10 +1378,10 @@
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="1"/>
@@ -1335,10 +1389,13 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1356,8 +1413,9 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1375,6 +1433,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,9 +1445,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F060F451-DD45-A340-881E-50BF9BBCCEF3}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1402,10 +1463,11 @@
     <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -1428,24 +1490,27 @@
         <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>38</v>
@@ -1470,12 +1535,15 @@
         <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>43</v>
@@ -1502,8 +1570,11 @@
       <c r="L3" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
@@ -1516,8 +1587,9 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1528,7 +1600,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,7 +1612,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014ADAAB-5E2C-2345-B6AB-833E609C1DAB}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1556,10 +1628,11 @@
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -1591,40 +1664,47 @@
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1636,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{717A1372-1645-6F46-82FB-B4CB472DCF87}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1653,10 +1733,11 @@
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
@@ -1685,19 +1766,22 @@
         <v>29</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1707,8 +1791,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1718,8 +1803,9 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1729,8 +1815,9 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1740,6 +1827,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
